--- a/biology/Microbiologie/Oxyrrhis/Oxyrrhis.xlsx
+++ b/biology/Microbiologie/Oxyrrhis/Oxyrrhis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oxyrrhis est un genre de dinoflagellés de la famille des Oxyrrhinaceae. Il est notamment représenté par l'espèce Oxyrrhis marina[2].
-Selon la source, on le considère soit comme étant un genre monotypique[3] ou bien incluant les espèces Oxyrrhis parasitica et O. phaeocysticola[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxyrrhis est un genre de dinoflagellés de la famille des Oxyrrhinaceae. Il est notamment représenté par l'espèce Oxyrrhis marina.
+Selon la source, on le considère soit comme étant un genre monotypique ou bien incluant les espèces Oxyrrhis parasitica et O. phaeocysticola.
 </t>
         </is>
       </c>
@@ -512,17 +524,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 janvier 2019) :
 Oxyrrhis marina Dujardin (espèce type)
 Oxyrrhis parasitica Poche
-Selon ITIS      (6 janvier 2019)[5] :
+Selon ITIS      (6 janvier 2019) :
 Oxyrrhis marina
-Selon NCBI  (6 janvier 2019)[6] :
+Selon NCBI  (6 janvier 2019) :
 Oxyrrhis marina
 Oxyrrhis maritima van Meel, 1969
-Selon World Register of Marine Species                               (6 janvier 2019)[7] :
+Selon World Register of Marine Species                               (6 janvier 2019) :
 Oxyrrhis marina Dujardin, 1841
 Oxyrrhis phaeocysticola Scherffel</t>
         </is>
